--- a/va_facility_data_2025-02-20/Stockbridge VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Stockbridge%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Stockbridge VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Stockbridge%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R1482f675f35f4da8a31b3d1da165047b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R83a00271dfcf47abab4c5da68e14d8fa"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5f041337860b464f86eac9451cf8d0ae"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1c019beecb314176b6c42d4434fec310"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R260cff6b81824d659747c1262c49525d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb7fc7e4c5e344a1eaa977e3b2916abfa"/>
   </x:sheets>
 </x:workbook>
 </file>
